--- a/2019_python/solutions/day22/Book1.xlsx
+++ b/2019_python/solutions/day22/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler.j.vick/Documents/learning/advent-of-code/2019_python/solutions/day22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC64FF2-87F3-3745-841F-35F25935E859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887D9DF-C090-1B4D-A1F4-FBB64CA7BEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="37580" windowHeight="21140" xr2:uid="{A4FA754E-4906-0A42-9009-E1F8667032ED}"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="11560" windowHeight="21140" xr2:uid="{A4FA754E-4906-0A42-9009-E1F8667032ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Starts in</t>
   </si>
@@ -170,12 +170,27 @@
   <si>
     <t>Card in Ending Position started in:</t>
   </si>
+  <si>
+    <t>Reset starts in position</t>
+  </si>
+  <si>
+    <t>row_start_position_speed (increment 2)</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Reset that contains row that deals to ending position</t>
+  </si>
+  <si>
+    <t>Reset # (loop until return to 0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +202,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,13 +252,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D74E50-3256-D141-BEA7-41409FB18420}">
   <dimension ref="A1:CO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8:AY14"/>
+    <sheetView tabSelected="1" topLeftCell="AX18" workbookViewId="0">
+      <selection activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +590,7 @@
     <col min="1" max="41" width="3.5" customWidth="1"/>
     <col min="42" max="42" width="9.5" customWidth="1"/>
     <col min="43" max="43" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="45.5" bestFit="1" customWidth="1"/>
     <col min="55" max="93" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1034,171 +1062,171 @@
         <v>31</v>
       </c>
       <c r="AZ3">
-        <f>_xlfn.CEILING.MATH(AZ1/AZ2)*AZ2-AZ1</f>
+        <f t="shared" ref="AZ3:BD4" si="0">_xlfn.CEILING.MATH(AZ1/AZ2)*AZ2-AZ1</f>
         <v>2</v>
       </c>
       <c r="BA3">
-        <f>_xlfn.CEILING.MATH(BA1/BA2)*BA2-BA1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BB3">
-        <f>_xlfn.CEILING.MATH(BB1/BB2)*BB2-BB1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BC3">
-        <f>_xlfn.CEILING.MATH(BC1/BC2)*BC2-BC1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BD3">
-        <f>_xlfn.CEILING.MATH(BD1/BD2)*BD2-BD1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="BE3">
-        <f t="shared" ref="BE3:CO3" si="0">_xlfn.CEILING.MATH(BE1/BE2)*BE2-BE1</f>
+        <f t="shared" ref="BE3:CO3" si="1">_xlfn.CEILING.MATH(BE1/BE2)*BE2-BE1</f>
         <v>3</v>
       </c>
       <c r="BF3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BG3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BH3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BI3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BJ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BK3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BL3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BM3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BN3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BO3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BP3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BQ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BR3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BS3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BT3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BU3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BV3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BW3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BX3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BY3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="BZ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CA3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CB3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CC3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CD3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CE3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CF3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CG3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CH3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CI3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CJ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CK3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CL3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CM3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CN3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="CO3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1246,171 +1274,171 @@
         <v>32</v>
       </c>
       <c r="AZ4">
-        <f>_xlfn.CEILING.MATH(AZ2/AZ3)*AZ3-AZ2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="BA4">
-        <f>_xlfn.CEILING.MATH(BA2/BA3)*BA3-BA2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BB4">
-        <f>_xlfn.CEILING.MATH(BB2/BB3)*BB3-BB2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BC4">
-        <f>_xlfn.CEILING.MATH(BC2/BC3)*BC3-BC2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BD4">
-        <f>_xlfn.CEILING.MATH(BD2/BD3)*BD3-BD2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="BE4">
-        <f t="shared" ref="BE4:CO4" si="1">_xlfn.CEILING.MATH(BE2/BE3)*BE3-BE2</f>
+        <f t="shared" ref="BE4:CO4" si="2">_xlfn.CEILING.MATH(BE2/BE3)*BE3-BE2</f>
         <v>2</v>
       </c>
       <c r="BF4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BG4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BH4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BI4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BJ4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BK4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BL4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BM4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BN4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BO4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BP4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BQ4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BR4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BS4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BT4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BU4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BV4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BW4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BX4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BY4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BZ4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CA4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CB4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CC4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CD4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CE4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CF4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CG4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CH4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CI4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CJ4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CK4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CL4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CM4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CN4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="CO4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1632,155 +1660,155 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <f t="shared" ref="BD6:CO6" si="2">MOD(BD5,BD2)</f>
+        <f t="shared" ref="BD6:CO6" si="3">MOD(BD5,BD2)</f>
         <v>1</v>
       </c>
       <c r="BE6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BF6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BG6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BH6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BI6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BJ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BK6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BL6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BM6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BN6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BO6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BP6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BQ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BR6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BS6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BT6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BU6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="BV6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BW6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BX6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BY6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="BZ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CA6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CC6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="CD6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="CE6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CF6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CG6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CH6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="CI6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="CJ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="CK6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="CL6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="CM6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="CN6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="CO6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -1864,167 +1892,167 @@
         <v>0</v>
       </c>
       <c r="BA8" s="3">
-        <f>MOD($AY8*BA$3, BA$2)</f>
+        <f t="shared" ref="AZ8:BC14" si="4">MOD($AY8*BA$3, BA$2)</f>
         <v>0</v>
       </c>
       <c r="BB8" s="3">
-        <f>MOD($AY8*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC8" s="3">
-        <f>MOD($AY8*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD8" s="3">
-        <f t="shared" ref="BD8:CO14" si="3">MOD($AY8*BD$3, BD$2)</f>
+        <f t="shared" ref="BD8:CO14" si="5">MOD($AY8*BD$3, BD$2)</f>
         <v>0</v>
       </c>
       <c r="BE8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BK8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BM8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BN8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BO8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BP8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BR8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BS8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BT8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BU8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BV8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BW8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BX8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BY8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BZ8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CA8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CB8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CC8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CD8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CE8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CF8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CG8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CH8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CI8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CJ8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CK8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CL8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CM8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CN8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="CO8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2034,159 +2062,159 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:AN9" si="4">SUM(B2:B8)</f>
+        <f t="shared" ref="B9:AN9" si="6">SUM(B2:B8)</f>
         <v>23</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="AL9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="AR9" t="s">
@@ -2199,171 +2227,171 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="3">
-        <f>MOD($AY9*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BA9" s="3">
-        <f>MOD($AY9*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BB9" s="3">
-        <f>MOD($AY9*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BC9" s="3">
-        <f>MOD($AY9*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BD9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BE9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BF9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BG9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BH9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BI9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BJ9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BK9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BL9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BM9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BN9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BO9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BP9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BQ9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BR9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BS9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BT9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BU9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BV9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BW9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BX9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BY9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BZ9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CA9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CB9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CC9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CD9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CE9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CF9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CG9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CH9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CI9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CJ9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CK9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CL9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CM9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CN9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="CO9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -2378,171 +2406,171 @@
         <v>2</v>
       </c>
       <c r="AZ10" s="3">
-        <f>MOD($AY10*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BA10" s="3">
-        <f>MOD($AY10*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BB10" s="3">
-        <f>MOD($AY10*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BC10" s="3">
-        <f>MOD($AY10*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BD10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BE10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BF10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BG10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BH10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BI10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BJ10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BK10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BL10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BM10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BN10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BO10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BP10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BQ10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BR10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BS10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BT10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BU10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BV10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BW10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BX10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BY10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="BZ10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CA10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CB10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CC10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CD10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CE10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CF10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CG10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CH10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CI10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CJ10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CK10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CL10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CM10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CN10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="CO10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -2560,171 +2588,171 @@
         <v>3</v>
       </c>
       <c r="AZ11" s="3">
-        <f>MOD($AY11*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BA11" s="3">
-        <f>MOD($AY11*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BB11" s="4">
-        <f>MOD($AY11*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BC11" s="4">
-        <f>MOD($AY11*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BD11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BE11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BF11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BG11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BH11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BI11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BJ11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BK11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BL11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BM11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BN11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BO11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BP11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BQ11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BR11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BS11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BT11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BU11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BV11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BW11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BX11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BY11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BZ11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CA11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CB11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CC11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CD11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CE11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CF11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CG11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CH11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CI11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CJ11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CK11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CL11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CM11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CN11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="CO11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -2755,171 +2783,171 @@
         <v>4</v>
       </c>
       <c r="AZ12" s="4">
-        <f>MOD($AY12*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BA12" s="3">
-        <f>MOD($AY12*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BB12" s="4">
-        <f>MOD($AY12*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BC12" s="4">
-        <f>MOD($AY12*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BD12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BE12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BF12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BG12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BH12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BI12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BJ12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BK12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BL12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BM12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BN12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BO12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BP12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BQ12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BR12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BS12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BT12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BU12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BV12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BW12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BX12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BY12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BZ12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CA12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CB12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CC12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CD12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CE12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CF12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CG12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CH12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CI12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CJ12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CK12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CL12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CM12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CN12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="CO12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -2946,171 +2974,171 @@
         <v>5</v>
       </c>
       <c r="AZ13" s="4">
-        <f>MOD($AY13*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="BA13" s="3">
-        <f>MOD($AY13*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BB13" s="5">
-        <f>MOD($AY13*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BC13" s="5">
-        <f>MOD($AY13*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="BD13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BE13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BF13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BG13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BH13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BI13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BJ13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BK13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BL13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BM13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BN13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BO13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BP13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BQ13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BR13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BS13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BT13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BU13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BV13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BW13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BX13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BY13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="BZ13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CA13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CB13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CC13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CD13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CE13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CF13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CG13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CH13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CI13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CJ13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CK13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CL13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CM13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CN13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="CO13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3134,171 +3162,171 @@
         <v>6</v>
       </c>
       <c r="AZ14" s="4">
-        <f>MOD($AY14*AZ$3, AZ$2)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BA14" s="3">
-        <f>MOD($AY14*BA$3, BA$2)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="BB14" s="5">
-        <f>MOD($AY14*BB$3, BB$2)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BC14" s="5">
-        <f>MOD($AY14*BC$3, BC$2)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="BD14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BE14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BF14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BG14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BH14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BI14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BJ14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BK14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BL14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BM14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BN14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BO14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BP14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BQ14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BR14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BS14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BT14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BU14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BV14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BW14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BX14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BY14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BZ14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="CA14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="CB14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="CC14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="CD14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="CE14" s="5">
-        <f t="shared" ref="CE14:CO14" si="5">MOD($AY14*CE$3, CE$2)</f>
+        <f t="shared" ref="CE14:CO14" si="7">MOD($AY14*CE$3, CE$2)</f>
         <v>4</v>
       </c>
       <c r="CF14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CG14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CH14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CI14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CJ14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CK14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CL14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CM14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CN14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="CO14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3332,155 +3360,155 @@
         <v>0</v>
       </c>
       <c r="BD15">
-        <f t="shared" ref="BD15:CO15" si="6">INDEX($AY$8:$AY$14, MATCH(BD6,BD8:BD14, 0))</f>
+        <f t="shared" ref="BD15:CO15" si="8">INDEX($AY$8:$AY$14, MATCH(BD6,BD8:BD14, 0))</f>
         <v>5</v>
       </c>
       <c r="BE15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BF15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="BH15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="BI15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BJ15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BK15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="BL15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BM15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BN15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="BO15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="BP15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BQ15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BR15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="BS15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="BT15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BU15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="BV15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="BW15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="BX15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BY15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="BZ15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="CA15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="CB15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="CC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="CD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="CE15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="CF15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CG15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="CH15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="CI15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="CJ15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="CK15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="CL15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="CM15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="CN15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="CO15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3511,155 +3539,155 @@
         <v>0</v>
       </c>
       <c r="BD16">
-        <f t="shared" ref="BD16:CO16" si="7">(BD15*BD1+BD5)/BD2</f>
+        <f t="shared" ref="BD16:CO16" si="9">(BD15*BD1+BD5)/BD2</f>
         <v>28</v>
       </c>
       <c r="BE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="BF16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="BH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="BI16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="BK16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="BL16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="BM16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="BO16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="BP16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="BQ16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BR16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="BS16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="BT16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="BU16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="BV16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="BW16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="BX16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="BY16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="BZ16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="CA16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="CB16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="CC16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="CD16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="CE16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="CF16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="CG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="CH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="CI16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="CJ16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="CK16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="CL16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="CM16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="CN16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="CO16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -3941,6 +3969,18 @@
       </c>
       <c r="AS20">
         <v>32</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ20">
+        <v>40</v>
+      </c>
+      <c r="BA20">
+        <v>41</v>
+      </c>
+      <c r="BB20">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:93" x14ac:dyDescent="0.2">
@@ -3974,6 +4014,18 @@
       <c r="AS21">
         <v>19</v>
       </c>
+      <c r="AY21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>7</v>
+      </c>
+      <c r="BB21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -4000,6 +4052,21 @@
       <c r="AK22">
         <v>11</v>
       </c>
+      <c r="AY22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" ref="AZ22:AZ23" si="10">_xlfn.CEILING.MATH(AZ20/AZ21)*AZ21-AZ20</f>
+        <v>2</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" ref="BA22:BB23" si="11">_xlfn.CEILING.MATH(BA20/BA21)*BA21-BA20</f>
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -4034,6 +4101,21 @@
       </c>
       <c r="AS23">
         <v>19</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:93" x14ac:dyDescent="0.2">
@@ -4066,6 +4148,18 @@
       </c>
       <c r="AS24">
         <v>32</v>
+      </c>
+      <c r="AY24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ24">
+        <v>24</v>
+      </c>
+      <c r="BA24">
+        <v>19</v>
+      </c>
+      <c r="BB24">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:93" x14ac:dyDescent="0.2">
@@ -4092,6 +4186,21 @@
       </c>
       <c r="AN25">
         <v>29</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ25">
+        <f>MOD(AZ24,AZ21)</f>
+        <v>3</v>
+      </c>
+      <c r="BA25">
+        <f>MOD(BA24,BA21)</f>
+        <v>5</v>
+      </c>
+      <c r="BB25">
+        <f>MOD(BB24,BB21)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:93" x14ac:dyDescent="0.2">
@@ -4118,6 +4227,21 @@
       </c>
       <c r="AO26">
         <v>35</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ26">
+        <f>MOD(AZ25,AZ22)</f>
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <f>MOD(BA25,BA22)</f>
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <f>MOD(BB25,BB22)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:93" x14ac:dyDescent="0.2">
@@ -4145,6 +4269,9 @@
       <c r="AQ27" t="s">
         <v>7</v>
       </c>
+      <c r="AY27" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -4152,163 +4279,163 @@
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28" si="8">SUM(B21:B27)</f>
+        <f t="shared" ref="B28" si="12">SUM(B21:B27)</f>
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28" si="9">SUM(C21:C27)</f>
+        <f t="shared" ref="C28" si="13">SUM(C21:C27)</f>
         <v>12</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28" si="10">SUM(D21:D27)</f>
+        <f t="shared" ref="D28" si="14">SUM(D21:D27)</f>
         <v>18</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="11">SUM(E21:E27)</f>
+        <f t="shared" ref="E28" si="15">SUM(E21:E27)</f>
         <v>24</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28" si="12">SUM(F21:F27)</f>
+        <f t="shared" ref="F28" si="16">SUM(F21:F27)</f>
         <v>30</v>
       </c>
       <c r="G28" s="1">
-        <f>SUM(G21:G27)</f>
+        <f t="shared" ref="G28:L28" si="17">SUM(G21:G27)</f>
         <v>36</v>
       </c>
       <c r="H28" s="1">
-        <f>SUM(H21:H27)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I28" s="1">
-        <f>SUM(I21:I27)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J28" s="1">
-        <f>SUM(J21:J27)</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="K28" s="1">
-        <f>SUM(K21:K27)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="L28" s="1">
-        <f>SUM(L21:L27)</f>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28" si="13">SUM(M21:M27)</f>
+        <f t="shared" ref="M28" si="18">SUM(M21:M27)</f>
         <v>31</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28" si="14">SUM(N21:N27)</f>
+        <f t="shared" ref="N28" si="19">SUM(N21:N27)</f>
         <v>37</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" ref="O28" si="15">SUM(O21:O27)</f>
+        <f t="shared" ref="O28" si="20">SUM(O21:O27)</f>
         <v>2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" ref="P28" si="16">SUM(P21:P27)</f>
+        <f t="shared" ref="P28" si="21">SUM(P21:P27)</f>
         <v>8</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ref="Q28" si="17">SUM(Q21:Q27)</f>
+        <f t="shared" ref="Q28" si="22">SUM(Q21:Q27)</f>
         <v>14</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ref="R28" si="18">SUM(R21:R27)</f>
+        <f t="shared" ref="R28" si="23">SUM(R21:R27)</f>
         <v>20</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" ref="S28" si="19">SUM(S21:S27)</f>
+        <f t="shared" ref="S28" si="24">SUM(S21:S27)</f>
         <v>26</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" ref="T28" si="20">SUM(T21:T27)</f>
+        <f t="shared" ref="T28" si="25">SUM(T21:T27)</f>
         <v>32</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" ref="U28" si="21">SUM(U21:U27)</f>
+        <f t="shared" ref="U28" si="26">SUM(U21:U27)</f>
         <v>38</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" ref="V28" si="22">SUM(V21:V27)</f>
+        <f t="shared" ref="V28" si="27">SUM(V21:V27)</f>
         <v>3</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" ref="W28" si="23">SUM(W21:W27)</f>
+        <f t="shared" ref="W28" si="28">SUM(W21:W27)</f>
         <v>9</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" ref="X28" si="24">SUM(X21:X27)</f>
+        <f t="shared" ref="X28" si="29">SUM(X21:X27)</f>
         <v>15</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" ref="Y28" si="25">SUM(Y21:Y27)</f>
+        <f t="shared" ref="Y28" si="30">SUM(Y21:Y27)</f>
         <v>21</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" ref="Z28" si="26">SUM(Z21:Z27)</f>
+        <f t="shared" ref="Z28" si="31">SUM(Z21:Z27)</f>
         <v>27</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" ref="AA28" si="27">SUM(AA21:AA27)</f>
+        <f t="shared" ref="AA28" si="32">SUM(AA21:AA27)</f>
         <v>33</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" ref="AB28" si="28">SUM(AB21:AB27)</f>
+        <f t="shared" ref="AB28" si="33">SUM(AB21:AB27)</f>
         <v>39</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" ref="AC28" si="29">SUM(AC21:AC27)</f>
+        <f t="shared" ref="AC28" si="34">SUM(AC21:AC27)</f>
         <v>4</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" ref="AD28" si="30">SUM(AD21:AD27)</f>
+        <f t="shared" ref="AD28" si="35">SUM(AD21:AD27)</f>
         <v>10</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" ref="AE28" si="31">SUM(AE21:AE27)</f>
+        <f t="shared" ref="AE28" si="36">SUM(AE21:AE27)</f>
         <v>16</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" ref="AF28" si="32">SUM(AF21:AF27)</f>
+        <f t="shared" ref="AF28" si="37">SUM(AF21:AF27)</f>
         <v>22</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" ref="AG28" si="33">SUM(AG21:AG27)</f>
+        <f t="shared" ref="AG28" si="38">SUM(AG21:AG27)</f>
         <v>28</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" ref="AH28" si="34">SUM(AH21:AH27)</f>
+        <f t="shared" ref="AH28" si="39">SUM(AH21:AH27)</f>
         <v>34</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" ref="AI28" si="35">SUM(AI21:AI27)</f>
+        <f t="shared" ref="AI28" si="40">SUM(AI21:AI27)</f>
         <v>40</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" ref="AJ28" si="36">SUM(AJ21:AJ27)</f>
+        <f t="shared" ref="AJ28" si="41">SUM(AJ21:AJ27)</f>
         <v>5</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" ref="AK28" si="37">SUM(AK21:AK27)</f>
+        <f t="shared" ref="AK28" si="42">SUM(AK21:AK27)</f>
         <v>11</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" ref="AL28" si="38">SUM(AL21:AL27)</f>
+        <f t="shared" ref="AL28" si="43">SUM(AL21:AL27)</f>
         <v>17</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" ref="AM28:AO28" si="39">SUM(AM21:AM27)</f>
+        <f t="shared" ref="AM28:AO28" si="44">SUM(AM21:AM27)</f>
         <v>23</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" ref="AN28" si="40">SUM(AN21:AN27)</f>
+        <f t="shared" ref="AN28" si="45">SUM(AN21:AN27)</f>
         <v>29</v>
       </c>
       <c r="AO28" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>35</v>
       </c>
       <c r="AR28" t="s">
@@ -4316,12 +4443,61 @@
       </c>
       <c r="AS28">
         <v>5</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="6">
+        <f>MOD($AY28*AZ$23,AZ$22)</f>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="6">
+        <f>MOD($AY28*BA$23,BA$22)</f>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="6">
+        <f>MOD($AY28*BB$23,BB$22)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:93" x14ac:dyDescent="0.2">
       <c r="AQ29" t="s">
         <v>12</v>
       </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="6">
+        <f>MOD($AY29*AZ$23,AZ$22)</f>
+        <v>1</v>
+      </c>
+      <c r="BA29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB29" s="6">
+        <f>MOD($AY29*BB$23,BB$22)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="AY30">
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="6">
+        <f>MOD($AY30*BB$23,BB$22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -4445,8 +4621,23 @@
       <c r="AP32" t="s">
         <v>42</v>
       </c>
+      <c r="AY32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ32">
+        <f>INDEX($AY$28:$AY$30, MATCH(AZ26,AZ28:AZ30,0))</f>
+        <v>1</v>
+      </c>
+      <c r="BA32">
+        <f>INDEX($AY$28:$AY$30, MATCH(BA26,BA28:BA30,0))</f>
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <f>INDEX($AY$28:$AY$30, MATCH(BB26,BB28:BB30,0))</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0</v>
       </c>
@@ -4474,8 +4665,23 @@
       <c r="AP33" t="s">
         <v>41</v>
       </c>
+      <c r="AY33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ33">
+        <f>(AZ32*AZ21+AZ25)/AZ22</f>
+        <v>5</v>
+      </c>
+      <c r="BA33">
+        <f>(BA32*BA21+BA25)/BA22</f>
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <f>(BB32*BB21+BB25)/BB22</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4509,8 +4715,23 @@
       <c r="AR34">
         <v>0</v>
       </c>
+      <c r="AY34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ34" s="1">
+        <f>(AZ33*AZ20+AZ24)/AZ21</f>
+        <v>32</v>
+      </c>
+      <c r="BA34" s="1">
+        <f>(BA33*BA20+BA24)/BA21</f>
+        <v>32</v>
+      </c>
+      <c r="BB34" s="1">
+        <f>(BB33*BB20+BB24)/BB21</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4542,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3">
@@ -4577,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4600,7 +4821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>28</v>
@@ -4626,7 +4847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4649,157 +4870,157 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f t="shared" ref="A40:AL40" si="41">SUM(A33:A39)</f>
+        <f t="shared" ref="A40:AL40" si="46">SUM(A33:A39)</f>
         <v>0</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>28</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>34</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>23</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>29</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>35</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>24</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>30</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>19</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>36</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>25</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>31</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>20</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>37</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>26</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>15</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>32</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>21</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>38</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>27</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>33</v>
       </c>
       <c r="AL40" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>22</v>
       </c>
       <c r="AM40" s="1">
@@ -4807,10 +5028,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AN41" s="1"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4821,7 +5042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>17</v>
       </c>
@@ -4829,7 +5050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>28</v>
       </c>
